--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Task</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Complete</t>
-  </si>
-  <si>
-    <t>Inprogress</t>
   </si>
   <si>
     <t>Phân Tích thiết kế hệ thống</t>
@@ -118,17 +115,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,9 +191,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -228,13 +218,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,7 +528,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +566,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -596,154 +583,154 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>10</v>
+      <c r="F3" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
         <v>7</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
+      <c r="F4" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2">
         <v>21</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>14</v>
+      <c r="F5" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2">
         <v>21</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>14</v>
+      <c r="F6" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>21</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>14</v>
+      <c r="F7" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>14</v>
+      <c r="F8" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>14</v>
+      <c r="F9" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="9">
         <v>1</v>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20025" windowHeight="7875"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Thiết kế Database</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
     <t>Code giao diện</t>
   </si>
   <si>
@@ -93,13 +90,7 @@
     <t>Nguyễn Văn Thao</t>
   </si>
   <si>
-    <t>Lục Duy Phương</t>
-  </si>
-  <si>
     <t>Đặng Thanh Hưng</t>
-  </si>
-  <si>
-    <t>Nguyễn Đình Đức Anh</t>
   </si>
   <si>
     <t>All team</t>
@@ -115,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +130,13 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -223,6 +221,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,7 +529,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,13 +607,13 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
         <v>7</v>
@@ -623,16 +624,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2">
         <v>21</v>
@@ -643,16 +644,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2">
         <v>21</v>
@@ -663,16 +664,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="E7" s="2">
         <v>21</v>
@@ -683,16 +684,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -703,39 +704,41 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10" s="9">
         <v>1</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
